--- a/uploads/uploaded_file_processed.xlsx
+++ b/uploads/uploaded_file_processed.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,67 +537,62 @@
           <t>期限日3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>特技1号在留期限</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山田太郎</t>
+          <t>李明</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>YAMADA TARO</t>
+          <t>LEE MING</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JP0010000000</t>
+          <t>CN0020000000</t>
         </is>
       </c>
       <c r="E2" s="5" t="n">
-        <v>34804</v>
+        <v>36027</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1期</t>
+          <t>2期</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>技能実習1号ロ</t>
+          <t>技能実習2号ロ</t>
         </is>
       </c>
       <c r="I2" s="5" t="n">
-        <v>45748</v>
+        <v>45458</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>46113</v>
+        <v>46188</v>
       </c>
       <c r="L2">
         <f>IF(OR(J2="",I2=""),"",IF(OR(LEFT(H2,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H2)),OR(ISNUMBER(SEARCH("2号",H2)),ISNUMBER(SEARCH("２号",H2))))),"",IF(K2="","",K2+(J2-I2+1))))</f>
         <v/>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O2" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P2" s="6">
         <f>J2-M2</f>
@@ -614,59 +609,62 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>李明</t>
+          <t>グエン・ティ・ハン</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEE MING</t>
+          <t>NGYUEN TY HA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CN0020000000</t>
+          <t>VN0030000000</t>
         </is>
       </c>
       <c r="E3" s="5" t="n">
-        <v>36027</v>
+        <v>35774</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>ベトナム</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2期</t>
+          <t>1期</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>技能実習2号ロ</t>
+          <t>特定技能1号</t>
         </is>
       </c>
       <c r="I3" s="5" t="n">
-        <v>45458</v>
+        <v>45870</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>46188</v>
+        <v>46054</v>
+      </c>
+      <c r="K3" t="n">
+        <v>365</v>
       </c>
       <c r="L3">
         <f>IF(OR(J3="",I3=""),"",IF(OR(LEFT(H3,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H3)),OR(ISNUMBER(SEARCH("2号",H3)),ISNUMBER(SEARCH("２号",H3))))),"",IF(K3="","",K3+(J3-I3+1))))</f>
         <v/>
       </c>
       <c r="M3" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O3" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P3" s="6">
         <f>J3-M3</f>
@@ -683,62 +681,59 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>211</v>
+        <v>3500</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>グエン・ティ・ハン</t>
+          <t>ラミレス・マリア</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NGYUEN TY HA</t>
+          <t>LAMIRES MARIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VN0030000000</t>
+          <t>PH0040000000</t>
         </is>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35774</v>
+        <v>35149</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ベトナム</t>
+          <t>フィリピン</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1期</t>
+          <t>3期</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>特定技能1号</t>
+          <t>特定技能2号</t>
         </is>
       </c>
       <c r="I4" s="5" t="n">
-        <v>45870</v>
+        <v>45848</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>46054</v>
-      </c>
-      <c r="K4" t="n">
-        <v>365</v>
+        <v>47309</v>
       </c>
       <c r="L4">
         <f>IF(OR(J4="",I4=""),"",IF(OR(LEFT(H4,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H4)),OR(ISNUMBER(SEARCH("2号",H4)),ISNUMBER(SEARCH("２号",H4))))),"",IF(K4="","",K4+(J4-I4+1))))</f>
         <v/>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O4" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P4" s="6">
         <f>J4-M4</f>
@@ -752,65 +747,65 @@
         <f>J4-O4</f>
         <v/>
       </c>
-      <c r="S4" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3500</v>
+        <v>3670</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ラミレス・マリア</t>
+          <t>aaaaa aaaaa aaaaa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAMIRES MARIA</t>
+          <t>aaaaa aaaaa aaaaa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PH0040000000</t>
+          <t>IDN111111111</t>
         </is>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35149</v>
+        <v>34973</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>フィリピン</t>
+          <t>インドネシア</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3期</t>
+          <t>1期</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>特定技能2号</t>
+          <t>特定技能1号</t>
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>45848</v>
+        <v>45870</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>47309</v>
+        <v>46235</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1461</v>
       </c>
       <c r="L5">
         <f>IF(OR(J5="",I5=""),"",IF(OR(LEFT(H5,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H5)),OR(ISNUMBER(SEARCH("2号",H5)),ISNUMBER(SEARCH("２号",H5))))),"",IF(K5="","",K5+(J5-I5+1))))</f>
         <v/>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P5" s="6">
         <f>J5-M5</f>
@@ -827,25 +822,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>aaaaa aaaaa aaaaa</t>
+          <t>bbbbb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>aaaaa aaaaa aaaaa</t>
+          <t>bbbbb</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IDN111111111</t>
+          <t>IDN111111112</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34973</v>
+        <v>34974</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -876,13 +871,13 @@
         <v/>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O6" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P6" s="6">
         <f>J6-M6</f>
@@ -896,31 +891,28 @@
         <f>J6-O6</f>
         <v/>
       </c>
-      <c r="S6" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bbbbb</t>
+          <t>ccccc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bbbbb</t>
+          <t>ccccc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IDN111111112</t>
+          <t>IDN111111113</t>
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34974</v>
+        <v>34975</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -951,13 +943,13 @@
         <v/>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P7" s="6">
         <f>J7-M7</f>
@@ -971,31 +963,28 @@
         <f>J7-O7</f>
         <v/>
       </c>
-      <c r="S7" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ccccc</t>
+          <t>ddddd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ccccc</t>
+          <t>ddddd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IDN111111113</t>
+          <t>IDN111111114</t>
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34975</v>
+        <v>34976</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1026,13 +1015,13 @@
         <v/>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O8" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P8" s="6">
         <f>J8-M8</f>
@@ -1046,31 +1035,28 @@
         <f>J8-O8</f>
         <v/>
       </c>
-      <c r="S8" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ddddd</t>
+          <t>eeeee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ddddd</t>
+          <t>eeeee</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>IDN111111114</t>
+          <t>IDN111111115</t>
         </is>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34976</v>
+        <v>34977</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1101,13 +1087,13 @@
         <v/>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O9" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P9" s="6">
         <f>J9-M9</f>
@@ -1121,31 +1107,28 @@
         <f>J9-O9</f>
         <v/>
       </c>
-      <c r="S9" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>eeeee</t>
+          <t>fffff</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eeeee</t>
+          <t>fffff</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IDN111111115</t>
+          <t>IDN111111116</t>
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34977</v>
+        <v>34978</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1176,13 +1159,13 @@
         <v/>
       </c>
       <c r="M10" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O10" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P10" s="6">
         <f>J10-M10</f>
@@ -1196,31 +1179,28 @@
         <f>J10-O10</f>
         <v/>
       </c>
-      <c r="S10" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fffff</t>
+          <t>ggggg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fffff</t>
+          <t>ggggg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IDN111111116</t>
+          <t>IDN111111117</t>
         </is>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34978</v>
+        <v>34979</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1251,13 +1231,13 @@
         <v/>
       </c>
       <c r="M11" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O11" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P11" s="6">
         <f>J11-M11</f>
@@ -1271,31 +1251,28 @@
         <f>J11-O11</f>
         <v/>
       </c>
-      <c r="S11" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ggggg</t>
+          <t>hhhhh</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ggggg</t>
+          <t>hhhhh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IDN111111117</t>
+          <t>IDN111111118</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34979</v>
+        <v>34980</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1326,13 +1303,13 @@
         <v/>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O12" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P12" s="6">
         <f>J12-M12</f>
@@ -1346,31 +1323,28 @@
         <f>J12-O12</f>
         <v/>
       </c>
-      <c r="S12" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hhhhh</t>
+          <t>iiiii</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hhhhh</t>
+          <t>iiiii</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IDN111111118</t>
+          <t>IDN111111119</t>
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34980</v>
+        <v>34981</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1401,13 +1375,13 @@
         <v/>
       </c>
       <c r="M13" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O13" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P13" s="6">
         <f>J13-M13</f>
@@ -1421,31 +1395,28 @@
         <f>J13-O13</f>
         <v/>
       </c>
-      <c r="S13" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>iiiii</t>
+          <t>jjjjj</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>iiiii</t>
+          <t>jjjjj</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>IDN111111119</t>
+          <t>IDN111111120</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34981</v>
+        <v>34982</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1476,13 +1447,13 @@
         <v/>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O14" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P14" s="6">
         <f>J14-M14</f>
@@ -1496,31 +1467,28 @@
         <f>J14-O14</f>
         <v/>
       </c>
-      <c r="S14" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jjjjj</t>
+          <t>kkkkk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jjjjj</t>
+          <t>kkkkk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IDN111111120</t>
+          <t>IDN111111121</t>
         </is>
       </c>
       <c r="E15" s="5" t="n">
-        <v>34982</v>
+        <v>34983</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1551,13 +1519,13 @@
         <v/>
       </c>
       <c r="M15" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O15" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P15" s="6">
         <f>J15-M15</f>
@@ -1571,31 +1539,28 @@
         <f>J15-O15</f>
         <v/>
       </c>
-      <c r="S15" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kkkkk</t>
+          <t>lllll</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kkkkk</t>
+          <t>lllll</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IDN111111121</t>
+          <t>IDN111111122</t>
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34983</v>
+        <v>34984</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1626,13 +1591,13 @@
         <v/>
       </c>
       <c r="M16" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O16" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P16" s="6">
         <f>J16-M16</f>
@@ -1646,31 +1611,28 @@
         <f>J16-O16</f>
         <v/>
       </c>
-      <c r="S16" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lllll</t>
+          <t>mmmmm mmmmm mmmmm mmmmm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>lllll</t>
+          <t>mmmmm mmmmm mmmmm mmmmm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IDN111111122</t>
+          <t>IDN111111123</t>
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34984</v>
+        <v>34985</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1701,13 +1663,13 @@
         <v/>
       </c>
       <c r="M17" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O17" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P17" s="6">
         <f>J17-M17</f>
@@ -1721,31 +1683,28 @@
         <f>J17-O17</f>
         <v/>
       </c>
-      <c r="S17" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mmmmm mmmmm mmmmm mmmmm</t>
+          <t>ooooo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mmmmm mmmmm mmmmm mmmmm</t>
+          <t>ooooo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IDN111111123</t>
+          <t>IDN111111124</t>
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34985</v>
+        <v>34986</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1776,13 +1735,13 @@
         <v/>
       </c>
       <c r="M18" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O18" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P18" s="6">
         <f>J18-M18</f>
@@ -1796,31 +1755,28 @@
         <f>J18-O18</f>
         <v/>
       </c>
-      <c r="S18" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ooooo</t>
+          <t>ppppp</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ooooo</t>
+          <t>ppppp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>IDN111111124</t>
+          <t>IDN111111125</t>
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34986</v>
+        <v>34987</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1851,13 +1807,13 @@
         <v/>
       </c>
       <c r="M19" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O19" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P19" s="6">
         <f>J19-M19</f>
@@ -1871,31 +1827,28 @@
         <f>J19-O19</f>
         <v/>
       </c>
-      <c r="S19" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ppppp</t>
+          <t>qqqqq</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ppppp</t>
+          <t>qqqqq</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IDN111111125</t>
+          <t>IDN111111126</t>
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34987</v>
+        <v>34988</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1926,13 +1879,13 @@
         <v/>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O20" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P20" s="6">
         <f>J20-M20</f>
@@ -1946,31 +1899,28 @@
         <f>J20-O20</f>
         <v/>
       </c>
-      <c r="S20" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>qqqqq</t>
+          <t>rrrrr</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>qqqqq</t>
+          <t>rrrrr</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>IDN111111126</t>
+          <t>IDN111111127</t>
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34988</v>
+        <v>34989</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2001,13 +1951,13 @@
         <v/>
       </c>
       <c r="M21" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O21" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P21" s="6">
         <f>J21-M21</f>
@@ -2021,31 +1971,28 @@
         <f>J21-O21</f>
         <v/>
       </c>
-      <c r="S21" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rrrrr</t>
+          <t>sssss</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>rrrrr</t>
+          <t>sssss</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IDN111111127</t>
+          <t>IDN111111128</t>
         </is>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34989</v>
+        <v>34990</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2076,13 +2023,13 @@
         <v/>
       </c>
       <c r="M22" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O22" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P22" s="6">
         <f>J22-M22</f>
@@ -2096,31 +2043,28 @@
         <f>J22-O22</f>
         <v/>
       </c>
-      <c r="S22" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sssss</t>
+          <t>ttttt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sssss</t>
+          <t>ttttt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IDN111111128</t>
+          <t>IDN111111129</t>
         </is>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34990</v>
+        <v>34991</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2151,13 +2095,13 @@
         <v/>
       </c>
       <c r="M23" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O23" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P23" s="6">
         <f>J23-M23</f>
@@ -2171,31 +2115,28 @@
         <f>J23-O23</f>
         <v/>
       </c>
-      <c r="S23" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ttttt</t>
+          <t>uuuuu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ttttt</t>
+          <t>uuuuu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IDN111111129</t>
+          <t>IDN111111130</t>
         </is>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34991</v>
+        <v>34992</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2226,13 +2167,13 @@
         <v/>
       </c>
       <c r="M24" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O24" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P24" s="6">
         <f>J24-M24</f>
@@ -2246,40 +2187,37 @@
         <f>J24-O24</f>
         <v/>
       </c>
-      <c r="S24" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3689</v>
+        <v>4001</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>uuuuu</t>
+          <t>1aaaaa aaaaa aaaaa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>uuuuu</t>
+          <t>aaaaa aaaaa aaaaa2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IDN111111130</t>
+          <t>IDN111111111</t>
         </is>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34992</v>
+        <v>34582</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>インドネシア</t>
+          <t>フィリピン</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1期</t>
+          <t>4期</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2288,10 +2226,10 @@
         </is>
       </c>
       <c r="I25" s="5" t="n">
-        <v>45870</v>
+        <v>45566</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>46235</v>
+        <v>45931</v>
       </c>
       <c r="K25" t="n">
         <v>1461</v>
@@ -2301,13 +2239,13 @@
         <v/>
       </c>
       <c r="M25" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N25" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O25" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P25" s="6">
         <f>J25-M25</f>
@@ -2321,31 +2259,28 @@
         <f>J25-O25</f>
         <v/>
       </c>
-      <c r="S25" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1aaaaa aaaaa aaaaa</t>
+          <t>1bbbbb</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>aaaaa aaaaa aaaaa2</t>
+          <t>bbbbb2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IDN111111111</t>
+          <t>IDN111111112</t>
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34582</v>
+        <v>34583</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2354,7 +2289,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4期</t>
+          <t>5期</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2363,10 +2298,10 @@
         </is>
       </c>
       <c r="I26" s="5" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>45931</v>
+        <v>45992</v>
       </c>
       <c r="K26" t="n">
         <v>1461</v>
@@ -2376,13 +2311,13 @@
         <v/>
       </c>
       <c r="M26" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N26" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O26" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P26" s="6">
         <f>J26-M26</f>
@@ -2396,31 +2331,28 @@
         <f>J26-O26</f>
         <v/>
       </c>
-      <c r="S26" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1bbbbb</t>
+          <t>1ccccc</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>bbbbb2</t>
+          <t>ccccc2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IDN111111112</t>
+          <t>IDN111111113</t>
         </is>
       </c>
       <c r="E27" s="5" t="n">
-        <v>34583</v>
+        <v>34584</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2429,7 +2361,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5期</t>
+          <t>6期</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2438,10 +2370,10 @@
         </is>
       </c>
       <c r="I27" s="5" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="K27" t="n">
         <v>1461</v>
@@ -2451,13 +2383,13 @@
         <v/>
       </c>
       <c r="M27" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O27" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P27" s="6">
         <f>J27-M27</f>
@@ -2471,31 +2403,28 @@
         <f>J27-O27</f>
         <v/>
       </c>
-      <c r="S27" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1ccccc</t>
+          <t>1ddddd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ccccc2</t>
+          <t>ddddd2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IDN111111113</t>
+          <t>IDN111111114</t>
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34584</v>
+        <v>34585</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2504,7 +2433,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6期</t>
+          <t>7期</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2513,10 +2442,10 @@
         </is>
       </c>
       <c r="I28" s="5" t="n">
-        <v>45658</v>
+        <v>45945</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>46023</v>
+        <v>46310</v>
       </c>
       <c r="K28" t="n">
         <v>1461</v>
@@ -2526,13 +2455,13 @@
         <v/>
       </c>
       <c r="M28" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O28" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P28" s="6">
         <f>J28-M28</f>
@@ -2546,31 +2475,28 @@
         <f>J28-O28</f>
         <v/>
       </c>
-      <c r="S28" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1ddddd</t>
+          <t>1eeeee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ddddd2</t>
+          <t>eeeee2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IDN111111114</t>
+          <t>IDN111111115</t>
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34585</v>
+        <v>34586</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2601,13 +2527,13 @@
         <v/>
       </c>
       <c r="M29" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O29" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P29" s="6">
         <f>J29-M29</f>
@@ -2621,31 +2547,28 @@
         <f>J29-O29</f>
         <v/>
       </c>
-      <c r="S29" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1eeeee</t>
+          <t>1fffff</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>eeeee2</t>
+          <t>fffff2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IDN111111115</t>
+          <t>IDN111111116</t>
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34586</v>
+        <v>34587</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2676,13 +2599,13 @@
         <v/>
       </c>
       <c r="M30" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N30" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O30" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P30" s="6">
         <f>J30-M30</f>
@@ -2696,31 +2619,28 @@
         <f>J30-O30</f>
         <v/>
       </c>
-      <c r="S30" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1fffff</t>
+          <t>1ggggg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>fffff2</t>
+          <t>ggggg2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IDN111111116</t>
+          <t>IDN111111117</t>
         </is>
       </c>
       <c r="E31" s="5" t="n">
-        <v>34587</v>
+        <v>34588</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2751,13 +2671,13 @@
         <v/>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O31" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P31" s="6">
         <f>J31-M31</f>
@@ -2771,31 +2691,28 @@
         <f>J31-O31</f>
         <v/>
       </c>
-      <c r="S31" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1ggggg</t>
+          <t>1hhhhh</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ggggg2</t>
+          <t>hhhhh2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IDN111111117</t>
+          <t>IDN111111118</t>
         </is>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34588</v>
+        <v>34589</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2826,13 +2743,13 @@
         <v/>
       </c>
       <c r="M32" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N32" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O32" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P32" s="6">
         <f>J32-M32</f>
@@ -2846,31 +2763,28 @@
         <f>J32-O32</f>
         <v/>
       </c>
-      <c r="S32" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1hhhhh</t>
+          <t>1iiiii</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>hhhhh2</t>
+          <t>iiiii2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IDN111111118</t>
+          <t>IDN111111119</t>
         </is>
       </c>
       <c r="E33" s="5" t="n">
-        <v>34589</v>
+        <v>34590</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2901,13 +2815,13 @@
         <v/>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N33" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O33" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P33" s="6">
         <f>J33-M33</f>
@@ -2921,31 +2835,28 @@
         <f>J33-O33</f>
         <v/>
       </c>
-      <c r="S33" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1iiiii</t>
+          <t>1jjjjj</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>iiiii2</t>
+          <t>jjjjj2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IDN111111119</t>
+          <t>IDN111111120</t>
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34590</v>
+        <v>34591</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2976,13 +2887,13 @@
         <v/>
       </c>
       <c r="M34" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O34" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P34" s="6">
         <f>J34-M34</f>
@@ -2996,31 +2907,28 @@
         <f>J34-O34</f>
         <v/>
       </c>
-      <c r="S34" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1jjjjj</t>
+          <t>1kkkkk</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>jjjjj2</t>
+          <t>kkkkk2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IDN111111120</t>
+          <t>IDN111111121</t>
         </is>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34591</v>
+        <v>34592</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3051,13 +2959,13 @@
         <v/>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O35" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P35" s="6">
         <f>J35-M35</f>
@@ -3071,31 +2979,28 @@
         <f>J35-O35</f>
         <v/>
       </c>
-      <c r="S35" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1kkkkk</t>
+          <t>1lllll</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>kkkkk2</t>
+          <t>lllll2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IDN111111121</t>
+          <t>IDN111111122</t>
         </is>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34592</v>
+        <v>34593</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3104,7 +3009,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7期</t>
+          <t>8期</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3113,10 +3018,10 @@
         </is>
       </c>
       <c r="I36" s="5" t="n">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>46310</v>
+        <v>46315</v>
       </c>
       <c r="K36" t="n">
         <v>1461</v>
@@ -3126,13 +3031,13 @@
         <v/>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O36" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P36" s="6">
         <f>J36-M36</f>
@@ -3146,31 +3051,28 @@
         <f>J36-O36</f>
         <v/>
       </c>
-      <c r="S36" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1lllll</t>
+          <t>1mmmmm mmmmm mmmmm mmmmm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>lllll2</t>
+          <t>mmmmm mmmmm mmmmm mmmmm2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IDN111111122</t>
+          <t>IDN111111123</t>
         </is>
       </c>
       <c r="E37" s="5" t="n">
-        <v>34593</v>
+        <v>34594</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3179,7 +3081,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8期</t>
+          <t>9期</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3188,10 +3090,10 @@
         </is>
       </c>
       <c r="I37" s="5" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>46315</v>
+        <v>46316</v>
       </c>
       <c r="K37" t="n">
         <v>1461</v>
@@ -3201,13 +3103,13 @@
         <v/>
       </c>
       <c r="M37" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O37" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P37" s="6">
         <f>J37-M37</f>
@@ -3221,31 +3123,28 @@
         <f>J37-O37</f>
         <v/>
       </c>
-      <c r="S37" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1mmmmm mmmmm mmmmm mmmmm</t>
+          <t>1ooooo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>mmmmm mmmmm mmmmm mmmmm2</t>
+          <t>ooooo2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IDN111111123</t>
+          <t>IDN111111124</t>
         </is>
       </c>
       <c r="E38" s="5" t="n">
-        <v>34594</v>
+        <v>34595</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3254,7 +3153,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9期</t>
+          <t>10期</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3263,10 +3162,10 @@
         </is>
       </c>
       <c r="I38" s="5" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>46316</v>
+        <v>46317</v>
       </c>
       <c r="K38" t="n">
         <v>1461</v>
@@ -3276,13 +3175,13 @@
         <v/>
       </c>
       <c r="M38" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O38" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P38" s="6">
         <f>J38-M38</f>
@@ -3296,31 +3195,28 @@
         <f>J38-O38</f>
         <v/>
       </c>
-      <c r="S38" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1ooooo</t>
+          <t>1ppppp</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ooooo2</t>
+          <t>ppppp2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IDN111111124</t>
+          <t>IDN111111125</t>
         </is>
       </c>
       <c r="E39" s="5" t="n">
-        <v>34595</v>
+        <v>34596</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3329,7 +3225,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10期</t>
+          <t>11期</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3338,10 +3234,10 @@
         </is>
       </c>
       <c r="I39" s="5" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>46317</v>
+        <v>46318</v>
       </c>
       <c r="K39" t="n">
         <v>1461</v>
@@ -3351,13 +3247,13 @@
         <v/>
       </c>
       <c r="M39" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N39" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O39" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P39" s="6">
         <f>J39-M39</f>
@@ -3371,31 +3267,28 @@
         <f>J39-O39</f>
         <v/>
       </c>
-      <c r="S39" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1ppppp</t>
+          <t>1qqqqq</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ppppp2</t>
+          <t>qqqqq2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>IDN111111125</t>
+          <t>IDN111111126</t>
         </is>
       </c>
       <c r="E40" s="5" t="n">
-        <v>34596</v>
+        <v>34597</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3404,7 +3297,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11期</t>
+          <t>12期</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3413,10 +3306,10 @@
         </is>
       </c>
       <c r="I40" s="5" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>46318</v>
+        <v>46319</v>
       </c>
       <c r="K40" t="n">
         <v>1461</v>
@@ -3426,13 +3319,13 @@
         <v/>
       </c>
       <c r="M40" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O40" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P40" s="6">
         <f>J40-M40</f>
@@ -3446,31 +3339,28 @@
         <f>J40-O40</f>
         <v/>
       </c>
-      <c r="S40" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1qqqqq</t>
+          <t>1rrrrr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>qqqqq2</t>
+          <t>rrrrr2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>IDN111111126</t>
+          <t>IDN111111127</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
-        <v>34597</v>
+        <v>34598</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3479,7 +3369,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12期</t>
+          <t>13期</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3488,10 +3378,10 @@
         </is>
       </c>
       <c r="I41" s="5" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>46319</v>
+        <v>46320</v>
       </c>
       <c r="K41" t="n">
         <v>1461</v>
@@ -3501,13 +3391,13 @@
         <v/>
       </c>
       <c r="M41" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O41" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P41" s="6">
         <f>J41-M41</f>
@@ -3521,31 +3411,28 @@
         <f>J41-O41</f>
         <v/>
       </c>
-      <c r="S41" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1rrrrr</t>
+          <t>1sssss</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>rrrrr2</t>
+          <t>sssss2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IDN111111127</t>
+          <t>IDN111111128</t>
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>34598</v>
+        <v>34599</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3554,7 +3441,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13期</t>
+          <t>14期</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3563,10 +3450,10 @@
         </is>
       </c>
       <c r="I42" s="5" t="n">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>46320</v>
+        <v>46321</v>
       </c>
       <c r="K42" t="n">
         <v>1461</v>
@@ -3576,13 +3463,13 @@
         <v/>
       </c>
       <c r="M42" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N42" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O42" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P42" s="6">
         <f>J42-M42</f>
@@ -3596,31 +3483,28 @@
         <f>J42-O42</f>
         <v/>
       </c>
-      <c r="S42" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1sssss</t>
+          <t>1ttttt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sssss2</t>
+          <t>ttttt2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>IDN111111128</t>
+          <t>IDN111111129</t>
         </is>
       </c>
       <c r="E43" s="5" t="n">
-        <v>34599</v>
+        <v>34600</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3629,7 +3513,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14期</t>
+          <t>15期</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3638,10 +3522,10 @@
         </is>
       </c>
       <c r="I43" s="5" t="n">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>46321</v>
+        <v>46322</v>
       </c>
       <c r="K43" t="n">
         <v>1461</v>
@@ -3651,13 +3535,13 @@
         <v/>
       </c>
       <c r="M43" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N43" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O43" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P43" s="6">
         <f>J43-M43</f>
@@ -3671,31 +3555,28 @@
         <f>J43-O43</f>
         <v/>
       </c>
-      <c r="S43" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1ttttt</t>
+          <t>1uuuuu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ttttt2</t>
+          <t>uuuuu2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>IDN111111129</t>
+          <t>IDN111111130</t>
         </is>
       </c>
       <c r="E44" s="5" t="n">
-        <v>34600</v>
+        <v>34601</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3704,7 +3585,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15期</t>
+          <t>16期</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3713,10 +3594,10 @@
         </is>
       </c>
       <c r="I44" s="5" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>46322</v>
+        <v>46323</v>
       </c>
       <c r="K44" t="n">
         <v>1461</v>
@@ -3726,13 +3607,13 @@
         <v/>
       </c>
       <c r="M44" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N44" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O44" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P44" s="6">
         <f>J44-M44</f>
@@ -3746,40 +3627,37 @@
         <f>J44-O44</f>
         <v/>
       </c>
-      <c r="S44" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4020</v>
+        <v>1111</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1uuuuu</t>
+          <t>vvvvvvv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>uuuuu2</t>
+          <t>vvvvvvvvvvvvv</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IDN111111130</t>
+          <t>AAAAAA111111</t>
         </is>
       </c>
       <c r="E45" s="5" t="n">
-        <v>34601</v>
+        <v>34700</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>フィリピン</t>
+          <t>ベトナム</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16期</t>
+          <t>2期</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3788,26 +3666,26 @@
         </is>
       </c>
       <c r="I45" s="5" t="n">
-        <v>45958</v>
+        <v>45638</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>46323</v>
+        <v>46003</v>
       </c>
       <c r="K45" t="n">
-        <v>1461</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <f>IF(OR(J45="",I45=""),"",IF(OR(LEFT(H45,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H45)),OR(ISNUMBER(SEARCH("2号",H45)),ISNUMBER(SEARCH("２号",H45))))),"",IF(K45="","",K45+(J45-I45+1))))</f>
         <v/>
       </c>
       <c r="M45" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N45" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O45" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P45" s="6">
         <f>J45-M45</f>
@@ -3821,31 +3699,28 @@
         <f>J45-O45</f>
         <v/>
       </c>
-      <c r="S45" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1111</v>
+        <v>2222</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vvvvvvv</t>
+          <t>wwwww</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>vvvvvvvvvvvvv</t>
+          <t>wwwwwww</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AAAAAA111111</t>
+          <t>BBBBBB22222</t>
         </is>
       </c>
       <c r="E46" s="5" t="n">
-        <v>34700</v>
+        <v>34522</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3854,35 +3729,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2期</t>
+          <t>4期</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>特定技能1号</t>
+          <t>特定技能2号</t>
         </is>
       </c>
       <c r="I46" s="5" t="n">
-        <v>45638</v>
+        <v>45814</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>46003</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
+        <v>46179</v>
       </c>
       <c r="L46">
         <f>IF(OR(J46="",I46=""),"",IF(OR(LEFT(H46,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H46)),OR(ISNUMBER(SEARCH("2号",H46)),ISNUMBER(SEARCH("２号",H46))))),"",IF(K46="","",K46+(J46-I46+1))))</f>
         <v/>
       </c>
       <c r="M46" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N46" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O46" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P46" s="6">
         <f>J46-M46</f>
@@ -3896,31 +3768,28 @@
         <f>J46-O46</f>
         <v/>
       </c>
-      <c r="S46" t="n">
-        <v>1703</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2222</v>
+        <v>3333</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>wwwww</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>wwwwwww</t>
+          <t>xxxxxx</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BBBBBB22222</t>
+          <t>CCCCCC333333</t>
         </is>
       </c>
       <c r="E47" s="5" t="n">
-        <v>34522</v>
+        <v>34002</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3929,32 +3798,32 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4期</t>
+          <t>3期</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>特定技能2号</t>
+          <t>技能実習3号ロ</t>
         </is>
       </c>
       <c r="I47" s="5" t="n">
-        <v>45814</v>
+        <v>45690</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>46179</v>
+        <v>46420</v>
       </c>
       <c r="L47">
         <f>IF(OR(J47="",I47=""),"",IF(OR(LEFT(H47,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H47)),OR(ISNUMBER(SEARCH("2号",H47)),ISNUMBER(SEARCH("２号",H47))))),"",IF(K47="","",K47+(J47-I47+1))))</f>
         <v/>
       </c>
       <c r="M47" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N47" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O47" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P47" s="6">
         <f>J47-M47</f>
@@ -3971,7 +3840,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3333</v>
+        <v>1112</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3980,7 +3849,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>xxxxxx</t>
+          <t>xxxxxxxx</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3989,41 +3858,41 @@
         </is>
       </c>
       <c r="E48" s="5" t="n">
-        <v>34002</v>
+        <v>34094</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ベトナム</t>
+          <t>フィリピン</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3期</t>
+          <t>4期</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>技能実習3号ロ</t>
+          <t>技能実習2号</t>
         </is>
       </c>
       <c r="I48" s="5" t="n">
-        <v>45690</v>
+        <v>45240</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>46420</v>
+        <v>45971</v>
       </c>
       <c r="L48">
         <f>IF(OR(J48="",I48=""),"",IF(OR(LEFT(H48,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H48)),OR(ISNUMBER(SEARCH("2号",H48)),ISNUMBER(SEARCH("２号",H48))))),"",IF(K48="","",K48+(J48-I48+1))))</f>
         <v/>
       </c>
       <c r="M48" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="N48" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O48" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P48" s="6">
         <f>J48-M48</f>
@@ -4035,1731 +3904,6 @@
       </c>
       <c r="R48" s="6">
         <f>J48-O48</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1112</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>xxxx</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>xxxxxxxx</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>CCCCCC333333</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="n">
-        <v>34094</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>フィリピン</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>4期</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>技能実習2号</t>
-        </is>
-      </c>
-      <c r="I49" s="5" t="n">
-        <v>45240</v>
-      </c>
-      <c r="J49" s="5" t="n">
-        <v>45971</v>
-      </c>
-      <c r="L49">
-        <f>IF(OR(J49="",I49=""),"",IF(OR(LEFT(H49,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H49)),OR(ISNUMBER(SEARCH("2号",H49)),ISNUMBER(SEARCH("２号",H49))))),"",IF(K49="","",K49+(J49-I49+1))))</f>
-        <v/>
-      </c>
-      <c r="M49" t="n">
-        <v>180</v>
-      </c>
-      <c r="N49" t="n">
-        <v>150</v>
-      </c>
-      <c r="O49" t="n">
-        <v>120</v>
-      </c>
-      <c r="P49" s="6">
-        <f>J49-M49</f>
-        <v/>
-      </c>
-      <c r="Q49" s="6">
-        <f>J49-N49</f>
-        <v/>
-      </c>
-      <c r="R49" s="6">
-        <f>J49-O49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3334</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>xxxx1</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>xxxxxx11</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>CCCCCC333334</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="n">
-        <v>34003</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I50" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J50" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L50">
-        <f>IF(OR(J50="",I50=""),"",IF(OR(LEFT(H50,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H50)),OR(ISNUMBER(SEARCH("2号",H50)),ISNUMBER(SEARCH("２号",H50))))),"",IF(K50="","",K50+(J50-I50+1))))</f>
-        <v/>
-      </c>
-      <c r="M50" t="n">
-        <v>180</v>
-      </c>
-      <c r="N50" t="n">
-        <v>150</v>
-      </c>
-      <c r="O50" t="n">
-        <v>120</v>
-      </c>
-      <c r="P50" s="6">
-        <f>J50-M50</f>
-        <v/>
-      </c>
-      <c r="Q50" s="6">
-        <f>J50-N50</f>
-        <v/>
-      </c>
-      <c r="R50" s="6">
-        <f>J50-O50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3335</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>xxxx2</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>xxxxxx12</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>CCCCCC333335</t>
-        </is>
-      </c>
-      <c r="E51" s="5" t="n">
-        <v>34004</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I51" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J51" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L51">
-        <f>IF(OR(J51="",I51=""),"",IF(OR(LEFT(H51,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H51)),OR(ISNUMBER(SEARCH("2号",H51)),ISNUMBER(SEARCH("２号",H51))))),"",IF(K51="","",K51+(J51-I51+1))))</f>
-        <v/>
-      </c>
-      <c r="M51" t="n">
-        <v>180</v>
-      </c>
-      <c r="N51" t="n">
-        <v>150</v>
-      </c>
-      <c r="O51" t="n">
-        <v>120</v>
-      </c>
-      <c r="P51" s="6">
-        <f>J51-M51</f>
-        <v/>
-      </c>
-      <c r="Q51" s="6">
-        <f>J51-N51</f>
-        <v/>
-      </c>
-      <c r="R51" s="6">
-        <f>J51-O51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3336</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>xxxx3</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>xxxxxx13</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>CCCCCC333336</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="n">
-        <v>34005</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I52" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J52" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L52">
-        <f>IF(OR(J52="",I52=""),"",IF(OR(LEFT(H52,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H52)),OR(ISNUMBER(SEARCH("2号",H52)),ISNUMBER(SEARCH("２号",H52))))),"",IF(K52="","",K52+(J52-I52+1))))</f>
-        <v/>
-      </c>
-      <c r="M52" t="n">
-        <v>180</v>
-      </c>
-      <c r="N52" t="n">
-        <v>150</v>
-      </c>
-      <c r="O52" t="n">
-        <v>120</v>
-      </c>
-      <c r="P52" s="6">
-        <f>J52-M52</f>
-        <v/>
-      </c>
-      <c r="Q52" s="6">
-        <f>J52-N52</f>
-        <v/>
-      </c>
-      <c r="R52" s="6">
-        <f>J52-O52</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3337</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>xxxx4</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>xxxxxx14</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>CCCCCC333337</t>
-        </is>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>34006</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I53" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J53" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L53">
-        <f>IF(OR(J53="",I53=""),"",IF(OR(LEFT(H53,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H53)),OR(ISNUMBER(SEARCH("2号",H53)),ISNUMBER(SEARCH("２号",H53))))),"",IF(K53="","",K53+(J53-I53+1))))</f>
-        <v/>
-      </c>
-      <c r="M53" t="n">
-        <v>180</v>
-      </c>
-      <c r="N53" t="n">
-        <v>150</v>
-      </c>
-      <c r="O53" t="n">
-        <v>120</v>
-      </c>
-      <c r="P53" s="6">
-        <f>J53-M53</f>
-        <v/>
-      </c>
-      <c r="Q53" s="6">
-        <f>J53-N53</f>
-        <v/>
-      </c>
-      <c r="R53" s="6">
-        <f>J53-O53</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3338</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>xxxx5</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>xxxxxx15</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>CCCCCC333338</t>
-        </is>
-      </c>
-      <c r="E54" s="5" t="n">
-        <v>34007</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I54" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J54" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L54">
-        <f>IF(OR(J54="",I54=""),"",IF(OR(LEFT(H54,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H54)),OR(ISNUMBER(SEARCH("2号",H54)),ISNUMBER(SEARCH("２号",H54))))),"",IF(K54="","",K54+(J54-I54+1))))</f>
-        <v/>
-      </c>
-      <c r="M54" t="n">
-        <v>180</v>
-      </c>
-      <c r="N54" t="n">
-        <v>150</v>
-      </c>
-      <c r="O54" t="n">
-        <v>120</v>
-      </c>
-      <c r="P54" s="6">
-        <f>J54-M54</f>
-        <v/>
-      </c>
-      <c r="Q54" s="6">
-        <f>J54-N54</f>
-        <v/>
-      </c>
-      <c r="R54" s="6">
-        <f>J54-O54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3339</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>xxxx6</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>xxxxxx16</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>CCCCCC333339</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="n">
-        <v>34008</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I55" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J55" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L55">
-        <f>IF(OR(J55="",I55=""),"",IF(OR(LEFT(H55,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H55)),OR(ISNUMBER(SEARCH("2号",H55)),ISNUMBER(SEARCH("２号",H55))))),"",IF(K55="","",K55+(J55-I55+1))))</f>
-        <v/>
-      </c>
-      <c r="M55" t="n">
-        <v>180</v>
-      </c>
-      <c r="N55" t="n">
-        <v>150</v>
-      </c>
-      <c r="O55" t="n">
-        <v>120</v>
-      </c>
-      <c r="P55" s="6">
-        <f>J55-M55</f>
-        <v/>
-      </c>
-      <c r="Q55" s="6">
-        <f>J55-N55</f>
-        <v/>
-      </c>
-      <c r="R55" s="6">
-        <f>J55-O55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3340</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>xxxx7</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>xxxxxx17</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>CCCCCC333340</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>34009</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I56" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J56" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L56">
-        <f>IF(OR(J56="",I56=""),"",IF(OR(LEFT(H56,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H56)),OR(ISNUMBER(SEARCH("2号",H56)),ISNUMBER(SEARCH("２号",H56))))),"",IF(K56="","",K56+(J56-I56+1))))</f>
-        <v/>
-      </c>
-      <c r="M56" t="n">
-        <v>180</v>
-      </c>
-      <c r="N56" t="n">
-        <v>150</v>
-      </c>
-      <c r="O56" t="n">
-        <v>120</v>
-      </c>
-      <c r="P56" s="6">
-        <f>J56-M56</f>
-        <v/>
-      </c>
-      <c r="Q56" s="6">
-        <f>J56-N56</f>
-        <v/>
-      </c>
-      <c r="R56" s="6">
-        <f>J56-O56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3341</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>xxxx8</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>xxxxxx18</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>CCCCCC333341</t>
-        </is>
-      </c>
-      <c r="E57" s="5" t="n">
-        <v>34010</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I57" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J57" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L57">
-        <f>IF(OR(J57="",I57=""),"",IF(OR(LEFT(H57,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H57)),OR(ISNUMBER(SEARCH("2号",H57)),ISNUMBER(SEARCH("２号",H57))))),"",IF(K57="","",K57+(J57-I57+1))))</f>
-        <v/>
-      </c>
-      <c r="M57" t="n">
-        <v>180</v>
-      </c>
-      <c r="N57" t="n">
-        <v>150</v>
-      </c>
-      <c r="O57" t="n">
-        <v>120</v>
-      </c>
-      <c r="P57" s="6">
-        <f>J57-M57</f>
-        <v/>
-      </c>
-      <c r="Q57" s="6">
-        <f>J57-N57</f>
-        <v/>
-      </c>
-      <c r="R57" s="6">
-        <f>J57-O57</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3342</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>xxxx9</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>xxxxxx19</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>CCCCCC333342</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="n">
-        <v>34011</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I58" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J58" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L58">
-        <f>IF(OR(J58="",I58=""),"",IF(OR(LEFT(H58,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H58)),OR(ISNUMBER(SEARCH("2号",H58)),ISNUMBER(SEARCH("２号",H58))))),"",IF(K58="","",K58+(J58-I58+1))))</f>
-        <v/>
-      </c>
-      <c r="M58" t="n">
-        <v>180</v>
-      </c>
-      <c r="N58" t="n">
-        <v>150</v>
-      </c>
-      <c r="O58" t="n">
-        <v>120</v>
-      </c>
-      <c r="P58" s="6">
-        <f>J58-M58</f>
-        <v/>
-      </c>
-      <c r="Q58" s="6">
-        <f>J58-N58</f>
-        <v/>
-      </c>
-      <c r="R58" s="6">
-        <f>J58-O58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3343</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>xxxx10</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>xxxxxx20</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>CCCCCC333343</t>
-        </is>
-      </c>
-      <c r="E59" s="5" t="n">
-        <v>34012</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I59" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J59" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L59">
-        <f>IF(OR(J59="",I59=""),"",IF(OR(LEFT(H59,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H59)),OR(ISNUMBER(SEARCH("2号",H59)),ISNUMBER(SEARCH("２号",H59))))),"",IF(K59="","",K59+(J59-I59+1))))</f>
-        <v/>
-      </c>
-      <c r="M59" t="n">
-        <v>180</v>
-      </c>
-      <c r="N59" t="n">
-        <v>150</v>
-      </c>
-      <c r="O59" t="n">
-        <v>120</v>
-      </c>
-      <c r="P59" s="6">
-        <f>J59-M59</f>
-        <v/>
-      </c>
-      <c r="Q59" s="6">
-        <f>J59-N59</f>
-        <v/>
-      </c>
-      <c r="R59" s="6">
-        <f>J59-O59</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>xxxx11</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>xxxxxx21</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>CCCCCC333344</t>
-        </is>
-      </c>
-      <c r="E60" s="5" t="n">
-        <v>34013</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I60" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J60" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L60">
-        <f>IF(OR(J60="",I60=""),"",IF(OR(LEFT(H60,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H60)),OR(ISNUMBER(SEARCH("2号",H60)),ISNUMBER(SEARCH("２号",H60))))),"",IF(K60="","",K60+(J60-I60+1))))</f>
-        <v/>
-      </c>
-      <c r="M60" t="n">
-        <v>180</v>
-      </c>
-      <c r="N60" t="n">
-        <v>150</v>
-      </c>
-      <c r="O60" t="n">
-        <v>120</v>
-      </c>
-      <c r="P60" s="6">
-        <f>J60-M60</f>
-        <v/>
-      </c>
-      <c r="Q60" s="6">
-        <f>J60-N60</f>
-        <v/>
-      </c>
-      <c r="R60" s="6">
-        <f>J60-O60</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>3345</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>xxxx12</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>xxxxxx22</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>CCCCCC333345</t>
-        </is>
-      </c>
-      <c r="E61" s="5" t="n">
-        <v>34014</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I61" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J61" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L61">
-        <f>IF(OR(J61="",I61=""),"",IF(OR(LEFT(H61,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H61)),OR(ISNUMBER(SEARCH("2号",H61)),ISNUMBER(SEARCH("２号",H61))))),"",IF(K61="","",K61+(J61-I61+1))))</f>
-        <v/>
-      </c>
-      <c r="M61" t="n">
-        <v>180</v>
-      </c>
-      <c r="N61" t="n">
-        <v>150</v>
-      </c>
-      <c r="O61" t="n">
-        <v>120</v>
-      </c>
-      <c r="P61" s="6">
-        <f>J61-M61</f>
-        <v/>
-      </c>
-      <c r="Q61" s="6">
-        <f>J61-N61</f>
-        <v/>
-      </c>
-      <c r="R61" s="6">
-        <f>J61-O61</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3346</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>xxxx13</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>xxxxxx23</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>CCCCCC333346</t>
-        </is>
-      </c>
-      <c r="E62" s="5" t="n">
-        <v>34015</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I62" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J62" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L62">
-        <f>IF(OR(J62="",I62=""),"",IF(OR(LEFT(H62,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H62)),OR(ISNUMBER(SEARCH("2号",H62)),ISNUMBER(SEARCH("２号",H62))))),"",IF(K62="","",K62+(J62-I62+1))))</f>
-        <v/>
-      </c>
-      <c r="M62" t="n">
-        <v>180</v>
-      </c>
-      <c r="N62" t="n">
-        <v>150</v>
-      </c>
-      <c r="O62" t="n">
-        <v>120</v>
-      </c>
-      <c r="P62" s="6">
-        <f>J62-M62</f>
-        <v/>
-      </c>
-      <c r="Q62" s="6">
-        <f>J62-N62</f>
-        <v/>
-      </c>
-      <c r="R62" s="6">
-        <f>J62-O62</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3347</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>xxxx14</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>xxxxxx24</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>CCCCCC333347</t>
-        </is>
-      </c>
-      <c r="E63" s="5" t="n">
-        <v>34016</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I63" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J63" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L63">
-        <f>IF(OR(J63="",I63=""),"",IF(OR(LEFT(H63,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H63)),OR(ISNUMBER(SEARCH("2号",H63)),ISNUMBER(SEARCH("２号",H63))))),"",IF(K63="","",K63+(J63-I63+1))))</f>
-        <v/>
-      </c>
-      <c r="M63" t="n">
-        <v>180</v>
-      </c>
-      <c r="N63" t="n">
-        <v>150</v>
-      </c>
-      <c r="O63" t="n">
-        <v>120</v>
-      </c>
-      <c r="P63" s="6">
-        <f>J63-M63</f>
-        <v/>
-      </c>
-      <c r="Q63" s="6">
-        <f>J63-N63</f>
-        <v/>
-      </c>
-      <c r="R63" s="6">
-        <f>J63-O63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3348</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>xxxx15</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>xxxxxx25</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>CCCCCC333348</t>
-        </is>
-      </c>
-      <c r="E64" s="5" t="n">
-        <v>34017</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I64" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J64" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L64">
-        <f>IF(OR(J64="",I64=""),"",IF(OR(LEFT(H64,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H64)),OR(ISNUMBER(SEARCH("2号",H64)),ISNUMBER(SEARCH("２号",H64))))),"",IF(K64="","",K64+(J64-I64+1))))</f>
-        <v/>
-      </c>
-      <c r="M64" t="n">
-        <v>180</v>
-      </c>
-      <c r="N64" t="n">
-        <v>150</v>
-      </c>
-      <c r="O64" t="n">
-        <v>120</v>
-      </c>
-      <c r="P64" s="6">
-        <f>J64-M64</f>
-        <v/>
-      </c>
-      <c r="Q64" s="6">
-        <f>J64-N64</f>
-        <v/>
-      </c>
-      <c r="R64" s="6">
-        <f>J64-O64</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3349</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>xxxx16</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>xxxxxx26</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>CCCCCC333349</t>
-        </is>
-      </c>
-      <c r="E65" s="5" t="n">
-        <v>34018</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J65" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L65">
-        <f>IF(OR(J65="",I65=""),"",IF(OR(LEFT(H65,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H65)),OR(ISNUMBER(SEARCH("2号",H65)),ISNUMBER(SEARCH("２号",H65))))),"",IF(K65="","",K65+(J65-I65+1))))</f>
-        <v/>
-      </c>
-      <c r="M65" t="n">
-        <v>180</v>
-      </c>
-      <c r="N65" t="n">
-        <v>150</v>
-      </c>
-      <c r="O65" t="n">
-        <v>120</v>
-      </c>
-      <c r="P65" s="6">
-        <f>J65-M65</f>
-        <v/>
-      </c>
-      <c r="Q65" s="6">
-        <f>J65-N65</f>
-        <v/>
-      </c>
-      <c r="R65" s="6">
-        <f>J65-O65</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3350</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>xxxx17</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>xxxxxx27</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>CCCCCC333350</t>
-        </is>
-      </c>
-      <c r="E66" s="5" t="n">
-        <v>34019</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I66" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J66" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L66">
-        <f>IF(OR(J66="",I66=""),"",IF(OR(LEFT(H66,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H66)),OR(ISNUMBER(SEARCH("2号",H66)),ISNUMBER(SEARCH("２号",H66))))),"",IF(K66="","",K66+(J66-I66+1))))</f>
-        <v/>
-      </c>
-      <c r="M66" t="n">
-        <v>180</v>
-      </c>
-      <c r="N66" t="n">
-        <v>150</v>
-      </c>
-      <c r="O66" t="n">
-        <v>120</v>
-      </c>
-      <c r="P66" s="6">
-        <f>J66-M66</f>
-        <v/>
-      </c>
-      <c r="Q66" s="6">
-        <f>J66-N66</f>
-        <v/>
-      </c>
-      <c r="R66" s="6">
-        <f>J66-O66</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3351</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>xxxx18</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>xxxxxx28</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>CCCCCC333351</t>
-        </is>
-      </c>
-      <c r="E67" s="5" t="n">
-        <v>34020</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I67" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J67" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L67">
-        <f>IF(OR(J67="",I67=""),"",IF(OR(LEFT(H67,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H67)),OR(ISNUMBER(SEARCH("2号",H67)),ISNUMBER(SEARCH("２号",H67))))),"",IF(K67="","",K67+(J67-I67+1))))</f>
-        <v/>
-      </c>
-      <c r="M67" t="n">
-        <v>180</v>
-      </c>
-      <c r="N67" t="n">
-        <v>150</v>
-      </c>
-      <c r="O67" t="n">
-        <v>120</v>
-      </c>
-      <c r="P67" s="6">
-        <f>J67-M67</f>
-        <v/>
-      </c>
-      <c r="Q67" s="6">
-        <f>J67-N67</f>
-        <v/>
-      </c>
-      <c r="R67" s="6">
-        <f>J67-O67</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3352</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>xxxx19</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>xxxxxx29</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>CCCCCC333352</t>
-        </is>
-      </c>
-      <c r="E68" s="5" t="n">
-        <v>34021</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I68" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J68" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L68">
-        <f>IF(OR(J68="",I68=""),"",IF(OR(LEFT(H68,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H68)),OR(ISNUMBER(SEARCH("2号",H68)),ISNUMBER(SEARCH("２号",H68))))),"",IF(K68="","",K68+(J68-I68+1))))</f>
-        <v/>
-      </c>
-      <c r="M68" t="n">
-        <v>180</v>
-      </c>
-      <c r="N68" t="n">
-        <v>150</v>
-      </c>
-      <c r="O68" t="n">
-        <v>120</v>
-      </c>
-      <c r="P68" s="6">
-        <f>J68-M68</f>
-        <v/>
-      </c>
-      <c r="Q68" s="6">
-        <f>J68-N68</f>
-        <v/>
-      </c>
-      <c r="R68" s="6">
-        <f>J68-O68</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>xxxx20</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>xxxxxx30</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>CCCCCC333353</t>
-        </is>
-      </c>
-      <c r="E69" s="5" t="n">
-        <v>34022</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I69" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J69" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L69">
-        <f>IF(OR(J69="",I69=""),"",IF(OR(LEFT(H69,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H69)),OR(ISNUMBER(SEARCH("2号",H69)),ISNUMBER(SEARCH("２号",H69))))),"",IF(K69="","",K69+(J69-I69+1))))</f>
-        <v/>
-      </c>
-      <c r="M69" t="n">
-        <v>180</v>
-      </c>
-      <c r="N69" t="n">
-        <v>150</v>
-      </c>
-      <c r="O69" t="n">
-        <v>120</v>
-      </c>
-      <c r="P69" s="6">
-        <f>J69-M69</f>
-        <v/>
-      </c>
-      <c r="Q69" s="6">
-        <f>J69-N69</f>
-        <v/>
-      </c>
-      <c r="R69" s="6">
-        <f>J69-O69</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3354</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>xxxx21</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>xxxxxx31</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>CCCCCC333354</t>
-        </is>
-      </c>
-      <c r="E70" s="5" t="n">
-        <v>34023</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I70" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J70" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L70">
-        <f>IF(OR(J70="",I70=""),"",IF(OR(LEFT(H70,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H70)),OR(ISNUMBER(SEARCH("2号",H70)),ISNUMBER(SEARCH("２号",H70))))),"",IF(K70="","",K70+(J70-I70+1))))</f>
-        <v/>
-      </c>
-      <c r="M70" t="n">
-        <v>180</v>
-      </c>
-      <c r="N70" t="n">
-        <v>150</v>
-      </c>
-      <c r="O70" t="n">
-        <v>120</v>
-      </c>
-      <c r="P70" s="6">
-        <f>J70-M70</f>
-        <v/>
-      </c>
-      <c r="Q70" s="6">
-        <f>J70-N70</f>
-        <v/>
-      </c>
-      <c r="R70" s="6">
-        <f>J70-O70</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3355</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>xxxx22</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>xxxxxx32</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>CCCCCC333355</t>
-        </is>
-      </c>
-      <c r="E71" s="5" t="n">
-        <v>34024</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I71" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J71" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L71">
-        <f>IF(OR(J71="",I71=""),"",IF(OR(LEFT(H71,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H71)),OR(ISNUMBER(SEARCH("2号",H71)),ISNUMBER(SEARCH("２号",H71))))),"",IF(K71="","",K71+(J71-I71+1))))</f>
-        <v/>
-      </c>
-      <c r="M71" t="n">
-        <v>180</v>
-      </c>
-      <c r="N71" t="n">
-        <v>150</v>
-      </c>
-      <c r="O71" t="n">
-        <v>120</v>
-      </c>
-      <c r="P71" s="6">
-        <f>J71-M71</f>
-        <v/>
-      </c>
-      <c r="Q71" s="6">
-        <f>J71-N71</f>
-        <v/>
-      </c>
-      <c r="R71" s="6">
-        <f>J71-O71</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3356</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>xxxx23</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>xxxxxx33</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>CCCCCC333356</t>
-        </is>
-      </c>
-      <c r="E72" s="5" t="n">
-        <v>34025</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>3期</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>技能実習3号ロ</t>
-        </is>
-      </c>
-      <c r="I72" s="5" t="n">
-        <v>45690</v>
-      </c>
-      <c r="J72" s="5" t="n">
-        <v>46420</v>
-      </c>
-      <c r="L72">
-        <f>IF(OR(J72="",I72=""),"",IF(OR(LEFT(H72,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H72)),OR(ISNUMBER(SEARCH("2号",H72)),ISNUMBER(SEARCH("２号",H72))))),"",IF(K72="","",K72+(J72-I72+1))))</f>
-        <v/>
-      </c>
-      <c r="M72" t="n">
-        <v>180</v>
-      </c>
-      <c r="N72" t="n">
-        <v>150</v>
-      </c>
-      <c r="O72" t="n">
-        <v>120</v>
-      </c>
-      <c r="P72" s="6">
-        <f>J72-M72</f>
-        <v/>
-      </c>
-      <c r="Q72" s="6">
-        <f>J72-N72</f>
-        <v/>
-      </c>
-      <c r="R72" s="6">
-        <f>J72-O72</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1234</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>yyyy</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>yyyyyy</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>dddddd444444</t>
-        </is>
-      </c>
-      <c r="E73" s="5" t="n">
-        <v>33156</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ベトナム</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1期</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>特定技能2号</t>
-        </is>
-      </c>
-      <c r="I73" s="5" t="n">
-        <v>45687</v>
-      </c>
-      <c r="J73" s="5" t="n">
-        <v>46782</v>
-      </c>
-      <c r="L73">
-        <f>IF(OR(J73="",I73=""),"",IF(OR(LEFT(H73,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H73)),OR(ISNUMBER(SEARCH("2号",H73)),ISNUMBER(SEARCH("２号",H73))))),"",IF(K73="","",K73+(J73-I73+1))))</f>
-        <v/>
-      </c>
-      <c r="M73" t="n">
-        <v>90</v>
-      </c>
-      <c r="N73" t="n">
-        <v>60</v>
-      </c>
-      <c r="O73" t="n">
-        <v>30</v>
-      </c>
-      <c r="P73" s="6">
-        <f>J73-M73</f>
-        <v/>
-      </c>
-      <c r="Q73" s="6">
-        <f>J73-N73</f>
-        <v/>
-      </c>
-      <c r="R73" s="6">
-        <f>J73-O73</f>
         <v/>
       </c>
     </row>
